--- a/EX-version-4.1/Exercise_Reports/Biceps_error_report.xlsx
+++ b/EX-version-4.1/Exercise_Reports/Biceps_error_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Your left wrist is bent too much</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Your left wrist is bent too low</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Your right wrist is bent too much</t>
@@ -412,15 +409,15 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -431,7 +428,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -442,7 +439,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -453,18 +450,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -475,7 +472,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -486,7 +483,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -497,7 +494,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -508,7 +505,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -519,7 +516,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -530,7 +527,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -541,7 +538,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
